--- a/chats/clientes-saludar.xlsx
+++ b/chats/clientes-saludar.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24,11 +20,11 @@
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,19 +330,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>